--- a/Angular Core 04 - Routing - DucDV7 Checklist.xlsx
+++ b/Angular Core 04 - Routing - DucDV7 Checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EC.Angular01\CheckList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EC.Angular01\EC_Angular_Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Trainee</t>
   </si>
@@ -151,10 +151,16 @@
 Khi ta chạy web thì nhập vào địa chỉ: http://localhost:4200/new-cmp/new-cmp2 thì nội dung của component Newcomp2 sẽ được hiển thị trong component newcmp</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Router outlet là tag dùng để trả về nội dung của phần component con trong component cha, dựa theo path của Route.</t>
+  </si>
+  <si>
+    <t>Ta dùng RouteLink</t>
+  </si>
+  <si>
+    <t>Ta dùng &lt;router-outlet&gt;&lt;/router-outlet&gt;</t>
+  </si>
+  <si>
+    <t>Dùng router.param với router là thể hiện của Route</t>
   </si>
 </sst>
 </file>
@@ -266,29 +272,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -638,489 +644,495 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
     </row>
     <row r="26" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:N24"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E27:J27"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="H29:J29"/>
@@ -1132,12 +1144,6 @@
     <mergeCell ref="E32:G32"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="H33:J33"/>
-    <mergeCell ref="A1:N24"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E27:J27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1150,7 +1156,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,10 +1197,10 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -1211,8 +1217,8 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1226,10 +1232,10 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -1244,8 +1250,8 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -1260,8 +1266,8 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -1269,41 +1275,47 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="7"/>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="7"/>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -1317,7 +1329,7 @@
       <c r="B13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -1327,7 +1339,7 @@
         <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Angular Core 04 - Routing - DucDV7 Checklist.xlsx
+++ b/Angular Core 04 - Routing - DucDV7 Checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="13755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="13755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
     <t>Ta dùng &lt;router-outlet&gt;&lt;/router-outlet&gt;</t>
   </si>
   <si>
-    <t>Dùng router.param với router là thể hiện của Route</t>
+    <t>Dùng router.params.subscribe với router là thể hiện của Route</t>
   </si>
 </sst>
 </file>
@@ -275,23 +275,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -644,495 +644,489 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="26" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:N24"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E27:J27"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="H29:J29"/>
@@ -1144,6 +1138,12 @@
     <mergeCell ref="E32:G32"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A1:N24"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E27:J27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
